--- a/primary/dataset-evaluation-results.xlsx
+++ b/primary/dataset-evaluation-results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\FAIR-AMD-OCT-paper-dataset\primary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\code-FAIR-AMD-OCT-paper\input\dataset\primary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798C0B01-072C-4344-B3C2-8A6A32F8D5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5FFBAC-0C53-4C2F-ABE3-9F266AA6475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="254">
   <si>
     <t>variableName</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>"yes" if the dataset landing page or the manuscript associated with the dataset (if any) mentions the FAIR principles</t>
-  </si>
-  <si>
-    <t>Has metadata: Name of funders</t>
   </si>
   <si>
     <t>A Composite Retinal Fundus and OCT Dataset along with Detailed Clinical Markings for Extracting Retinal Layers, Retinal Lesions and Screening Macular and Glaucomatous Disorders</t>
@@ -1487,7 +1484,7 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3281,11 +3278,11 @@
   </sheetPr>
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3305,6 +3302,7 @@
     <col min="20" max="20" width="26.453125" customWidth="1"/>
     <col min="25" max="25" width="23.36328125" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
+    <col min="34" max="34" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3408,7 +3406,7 @@
         <v>60</v>
       </c>
       <c r="AH1" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="AI1" s="10" t="s">
         <v>63</v>
@@ -3425,118 +3423,118 @@
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="C2" s="15">
         <v>2021</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="F2" s="17">
         <v>45460</v>
       </c>
       <c r="G2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" s="16" t="s">
+      <c r="R2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" s="16" t="s">
+      <c r="T2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="T2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="AE2" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF2" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH2" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI2" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ2" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL2" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3549,70 +3547,70 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
       <c r="X3" s="18"/>
       <c r="Y3" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z3" s="18"/>
       <c r="AA3" s="18"/>
       <c r="AB3" s="18"/>
       <c r="AC3" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD3" s="18"/>
       <c r="AE3" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF3" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG3" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH3" s="18"/>
       <c r="AI3" s="18"/>
       <c r="AJ3" s="18"/>
       <c r="AK3" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL3" s="18"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="C4" s="15">
         <v>2018</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>15</v>
@@ -3621,100 +3619,100 @@
         <v>45460</v>
       </c>
       <c r="G4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="16" t="s">
+      <c r="N4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q4" s="16" t="s">
+      <c r="R4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>81</v>
-      </c>
       <c r="T4" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z4" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC4" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD4" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE4" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF4" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG4" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ4" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK4" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3727,28 +3725,28 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
       <c r="V5" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W5" s="18"/>
       <c r="X5" s="18"/>
@@ -3769,118 +3767,118 @@
     </row>
     <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="C6" s="15">
         <v>2020</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="F6" s="17">
         <v>45462</v>
       </c>
       <c r="G6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="I6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" s="16" t="s">
+      <c r="N6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q6" s="16" t="s">
+      <c r="R6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="S6" s="16" t="s">
+      <c r="T6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD6" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="AE6" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ6" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK6" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -3893,27 +3891,27 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="R7" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
       <c r="U7" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
@@ -3922,7 +3920,7 @@
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
@@ -3933,124 +3931,124 @@
       <c r="AI7" s="18"/>
       <c r="AJ7" s="18"/>
       <c r="AK7" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL7" s="18"/>
     </row>
     <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="C8" s="15">
         <v>2023</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="17">
         <v>45462</v>
       </c>
       <c r="G8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="16" t="s">
+      <c r="M8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" s="16" t="s">
+      <c r="R8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="R8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="S8" s="16" t="s">
+      <c r="T8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD8" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="T8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="V8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="X8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD8" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="AE8" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF8" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG8" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH8" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI8" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AJ8" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK8" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4063,22 +4061,22 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="R9" s="18" t="s">
-        <v>112</v>
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
@@ -4088,141 +4086,141 @@
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
       <c r="Z9" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
       <c r="AC9" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD9" s="18"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="18"/>
       <c r="AG9" s="18"/>
       <c r="AH9" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI9" s="18"/>
       <c r="AJ9" s="18"/>
       <c r="AK9" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AL9" s="18"/>
     </row>
     <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="C10" s="15">
         <v>2024</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="F10" s="17">
         <v>45461</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="S10" s="16" t="s">
+      <c r="V10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD10" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="T10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="V10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="W10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD10" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="AE10" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF10" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG10" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH10" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI10" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AJ10" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4235,22 +4233,22 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="R11" s="18" t="s">
-        <v>122</v>
       </c>
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
@@ -4259,17 +4257,17 @@
       <c r="W11" s="18"/>
       <c r="X11" s="18"/>
       <c r="Y11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z11" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="Z11" s="18" t="s">
-        <v>124</v>
       </c>
       <c r="AA11" s="18"/>
       <c r="AB11" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC11" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="AC11" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="AD11" s="18"/>
       <c r="AE11" s="18"/>
@@ -4283,118 +4281,118 @@
     </row>
     <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="C12" s="15">
         <v>2018</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="17">
         <v>45461</v>
       </c>
       <c r="G12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="R12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="W12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB12" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC12" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD12" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE12" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF12" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ12" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4407,22 +4405,22 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="R13" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="R13" s="18" t="s">
-        <v>134</v>
       </c>
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
@@ -4447,118 +4445,118 @@
     </row>
     <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>136</v>
       </c>
       <c r="C14" s="15">
         <v>2021</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="F14" s="17">
         <v>45461</v>
       </c>
       <c r="G14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="I14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U14" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="S14" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U14" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="V14" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z14" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC14" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD14" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE14" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF14" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK14" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4576,15 +4574,15 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="R15" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="R15" s="18" t="s">
-        <v>138</v>
       </c>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
@@ -4604,127 +4602,127 @@
       <c r="AH15" s="18"/>
       <c r="AI15" s="18"/>
       <c r="AJ15" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK15" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL15" s="18"/>
     </row>
     <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>140</v>
       </c>
       <c r="C16" s="16">
         <v>2018</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="26">
         <v>45463</v>
       </c>
       <c r="G16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="I16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="16" t="s">
+      <c r="M16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q16" s="16" t="s">
+      <c r="R16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="R16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="S16" s="16" t="s">
+      <c r="T16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD16" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="T16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="X16" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD16" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="AE16" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF16" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG16" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH16" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI16" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ16" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK16" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4740,33 +4738,33 @@
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="M17" s="18" t="s">
-        <v>142</v>
-      </c>
       <c r="N17" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O17" s="18"/>
       <c r="P17" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q17" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="Q17" s="21" t="s">
+      <c r="R17" s="18" t="s">
         <v>144</v>
-      </c>
-      <c r="R17" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
       <c r="U17" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
       <c r="X17" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
@@ -4785,118 +4783,118 @@
     </row>
     <row r="18" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="C18" s="15">
         <v>2023</v>
       </c>
       <c r="D18" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="F18" s="17">
         <v>45461</v>
       </c>
       <c r="G18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="I18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W18" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q18" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="R18" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="S18" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="V18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="X18" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y18" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z18" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB18" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC18" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD18" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE18" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF18" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ18" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK18" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4911,22 +4909,22 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q19" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="Q19" s="21" t="s">
+      <c r="R19" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="R19" s="18" t="s">
-        <v>154</v>
       </c>
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
@@ -4934,7 +4932,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
       <c r="X19" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
@@ -4945,7 +4943,7 @@
       <c r="AE19" s="18"/>
       <c r="AF19" s="18"/>
       <c r="AG19" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH19" s="18"/>
       <c r="AI19" s="18"/>
@@ -4955,118 +4953,118 @@
     </row>
     <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="C20" s="16">
         <v>2024</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" s="17">
         <v>45463</v>
       </c>
       <c r="G20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="I20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="N20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S20" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD20" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="T20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="V20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="W20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="X20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y20" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD20" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="AE20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5075,64 +5073,64 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="L21" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="M21" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="N21" s="18" t="s">
         <v>165</v>
-      </c>
-      <c r="N21" s="18" t="s">
-        <v>166</v>
       </c>
       <c r="O21" s="18"/>
       <c r="P21" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q21" s="21" t="s">
         <v>167</v>
-      </c>
-      <c r="Q21" s="21" t="s">
-        <v>168</v>
       </c>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
       <c r="T21" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="U21" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="U21" s="18" t="s">
+      <c r="V21" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="W21" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="V21" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="W21" s="18" t="s">
+      <c r="X21" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="X21" s="18" t="s">
-        <v>172</v>
       </c>
       <c r="Y21" s="18"/>
       <c r="Z21" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA21" s="18"/>
       <c r="AB21" s="18"/>
       <c r="AC21" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD21" s="18"/>
       <c r="AE21" s="18"/>
       <c r="AF21" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG21" s="18"/>
       <c r="AH21" s="18"/>
@@ -5143,118 +5141,118 @@
     </row>
     <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>177</v>
       </c>
       <c r="C22" s="16">
         <v>2014</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" s="17">
         <v>45463</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q22" s="16" t="s">
+      <c r="R22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="X22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD22" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="R22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="S22" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="T22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="V22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="W22" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA22" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB22" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD22" s="16" t="s">
-        <v>181</v>
-      </c>
       <c r="AE22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK22" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5266,53 +5264,53 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="J23" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="K23" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="L23" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="M23" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="N23" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="O23" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="P23" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="O23" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="P23" s="18" t="s">
+      <c r="Q23" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="Q23" s="21" t="s">
+      <c r="R23" s="18" t="s">
         <v>190</v>
-      </c>
-      <c r="R23" s="18" t="s">
-        <v>191</v>
       </c>
       <c r="S23" s="18"/>
       <c r="T23" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="U23" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="U23" s="18" t="s">
-        <v>193</v>
-      </c>
       <c r="V23" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W23" s="18"/>
       <c r="X23" s="18"/>
       <c r="Y23" s="18"/>
       <c r="Z23" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AA23" s="18"/>
       <c r="AB23" s="18"/>
@@ -5325,124 +5323,124 @@
       <c r="AI23" s="18"/>
       <c r="AJ23" s="18"/>
       <c r="AK23" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AL23" s="18"/>
     </row>
     <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>196</v>
       </c>
       <c r="C24" s="16">
         <v>2014</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F24" s="17">
         <v>45463</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H24" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="I24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q24" s="16" t="s">
+      <c r="R24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD24" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="R24" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="V24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="W24" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="X24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD24" s="16" t="s">
-        <v>181</v>
-      </c>
       <c r="AE24" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF24" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH24" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI24" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ24" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK24" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL24" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5455,37 +5453,37 @@
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
       <c r="O25" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P25" s="18"/>
       <c r="Q25" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="R25" s="18" t="s">
         <v>200</v>
-      </c>
-      <c r="R25" s="18" t="s">
-        <v>201</v>
       </c>
       <c r="S25" s="18"/>
       <c r="T25" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="U25" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="U25" s="18" t="s">
+      <c r="V25" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="V25" s="18" t="s">
+      <c r="W25" s="18" t="s">
         <v>204</v>
-      </c>
-      <c r="W25" s="18" t="s">
-        <v>205</v>
       </c>
       <c r="X25" s="18"/>
       <c r="Y25" s="18"/>
@@ -5505,118 +5503,118 @@
     </row>
     <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>206</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>207</v>
       </c>
       <c r="C26" s="16">
         <v>2013</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" s="17">
         <v>45463</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q26" s="24" t="s">
-        <v>180</v>
-      </c>
       <c r="R26" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S26" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T26" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V26" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z26" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB26" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD26" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE26" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF26" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK26" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5628,53 +5626,53 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" s="18" t="s">
         <v>209</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>210</v>
       </c>
       <c r="M27" s="18"/>
       <c r="N27" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O27" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P27" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q27" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="Q27" s="21" t="s">
+      <c r="R27" s="18" t="s">
         <v>212</v>
-      </c>
-      <c r="R27" s="18" t="s">
-        <v>213</v>
       </c>
       <c r="S27" s="18"/>
       <c r="T27" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="U27" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="18" t="s">
+      <c r="V27" s="18" t="s">
         <v>215</v>
-      </c>
-      <c r="V27" s="18" t="s">
-        <v>216</v>
       </c>
       <c r="W27" s="18"/>
       <c r="X27" s="18"/>
       <c r="Y27" s="18"/>
       <c r="Z27" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AA27" s="18"/>
       <c r="AB27" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AC27" s="18"/>
       <c r="AD27" s="18"/>
@@ -5685,129 +5683,129 @@
       <c r="AI27" s="18"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL27" s="18"/>
     </row>
     <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>221</v>
       </c>
       <c r="C28" s="16">
         <v>2018</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F28" s="26">
         <v>45463</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H28" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="I28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="N28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>180</v>
-      </c>
       <c r="R28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S28" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA28" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC28" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD28" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL28" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="18"/>
@@ -5817,7 +5815,7 @@
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
@@ -5827,14 +5825,14 @@
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="R29" s="18" t="s">
         <v>223</v>
-      </c>
-      <c r="R29" s="18" t="s">
-        <v>224</v>
       </c>
       <c r="S29" s="18"/>
       <c r="T29" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
@@ -5842,14 +5840,14 @@
       <c r="X29" s="18"/>
       <c r="Y29" s="18"/>
       <c r="Z29" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AA29" s="18"/>
       <c r="AB29" s="18"/>
       <c r="AC29" s="18"/>
       <c r="AD29" s="18"/>
       <c r="AE29" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF29" s="18"/>
       <c r="AG29" s="18"/>
@@ -5857,124 +5855,124 @@
       <c r="AI29" s="18"/>
       <c r="AJ29" s="18"/>
       <c r="AK29" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AL29" s="18"/>
     </row>
     <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>227</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>228</v>
       </c>
       <c r="C30" s="16">
         <v>2012</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F30" s="17">
         <v>45464</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H30" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q30" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="I30" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M30" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P30" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q30" s="16" t="s">
-        <v>180</v>
-      </c>
       <c r="R30" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S30" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U30" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V30" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W30" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X30" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y30" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z30" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA30" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB30" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC30" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD30" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE30" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF30" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG30" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH30" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI30" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ30" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK30" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL30" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -5987,35 +5985,35 @@
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J31" s="18"/>
       <c r="K31" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="M31" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="M31" s="18" t="s">
-        <v>231</v>
-      </c>
       <c r="N31" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="R31" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="R31" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="S31" s="18"/>
       <c r="T31" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="U31" s="18" t="s">
         <v>234</v>
-      </c>
-      <c r="U31" s="18" t="s">
-        <v>235</v>
       </c>
       <c r="V31" s="18"/>
       <c r="W31" s="18"/>
@@ -6024,7 +6022,7 @@
       <c r="Z31" s="18"/>
       <c r="AA31" s="18"/>
       <c r="AB31" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC31" s="18"/>
       <c r="AD31" s="18"/>
@@ -6035,124 +6033,124 @@
       <c r="AI31" s="18"/>
       <c r="AJ31" s="18"/>
       <c r="AK31" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL31" s="18"/>
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>239</v>
       </c>
       <c r="C32" s="16">
         <v>2013</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F32" s="17">
         <v>45471</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H32" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="I32" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M32" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q32" s="16" t="s">
-        <v>180</v>
-      </c>
       <c r="R32" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S32" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T32" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U32" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V32" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W32" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X32" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y32" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z32" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA32" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB32" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC32" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD32" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE32" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF32" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG32" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH32" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI32" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ32" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK32" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL32" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:38" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -6173,7 +6171,7 @@
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
@@ -6187,7 +6185,7 @@
       <c r="AA33" s="18"/>
       <c r="AB33" s="18"/>
       <c r="AC33" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AD33" s="18"/>
       <c r="AE33" s="18"/>
@@ -6197,7 +6195,7 @@
       <c r="AI33" s="18"/>
       <c r="AJ33" s="18"/>
       <c r="AK33" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AL33" s="18"/>
     </row>
@@ -15021,7 +15019,9 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15030,7 +15030,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>19</v>
@@ -15039,7 +15039,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>25</v>
@@ -15110,7 +15110,7 @@
       <c r="AA1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="10" t="s">
         <v>61</v>
       </c>
       <c r="AC1" s="32" t="s">
@@ -15126,157 +15126,157 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
